--- a/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
+++ b/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\School\_University of Akron\12th Semester - Spring 2025 (PC)\SDP\Vehicle-Dynamics\MATLAB\nonlinear_double_track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCAAEF-9F20-471D-B1F3-94AC129EDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29437C11-2D6E-484F-B369-8C1E455616A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28905" yWindow="6405" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
+++ b/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\School\_University of Akron\12th Semester - Spring 2025 (PC)\SDP\Vehicle-Dynamics\MATLAB\nonlinear_double_track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29437C11-2D6E-484F-B369-8C1E455616A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA440DA-EAB5-4246-9256-3EDA9CA65FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="6405" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26505" yWindow="8700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +395,30 @@
       <c r="A2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>8344.4</v>
+      </c>
+      <c r="E2">
+        <v>11663</v>
+      </c>
+      <c r="F2">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="G2">
+        <v>5679.9</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>34132</v>
+      </c>
+      <c r="K2">
+        <v>29683</v>
+      </c>
       <c r="L2">
         <v>21997</v>
       </c>
@@ -406,6 +430,24 @@
       <c r="A3">
         <v>20</v>
       </c>
+      <c r="F3">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="G3">
+        <v>5679.9</v>
+      </c>
+      <c r="H3">
+        <v>6993.3</v>
+      </c>
+      <c r="I3">
+        <v>8782.2000000000007</v>
+      </c>
+      <c r="J3">
+        <v>34132</v>
+      </c>
+      <c r="K3">
+        <v>29683</v>
+      </c>
       <c r="L3">
         <v>34452</v>
       </c>
@@ -417,6 +459,24 @@
       <c r="A4">
         <v>40</v>
       </c>
+      <c r="F4">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="G4">
+        <v>5679.9</v>
+      </c>
+      <c r="H4">
+        <v>8642</v>
+      </c>
+      <c r="I4">
+        <v>2193.8000000000002</v>
+      </c>
+      <c r="J4">
+        <v>35054</v>
+      </c>
+      <c r="K4">
+        <v>34602</v>
+      </c>
       <c r="L4">
         <v>46685</v>
       </c>
@@ -428,6 +488,24 @@
       <c r="A5">
         <v>60</v>
       </c>
+      <c r="F5">
+        <v>6836.2</v>
+      </c>
+      <c r="G5">
+        <v>46016</v>
+      </c>
+      <c r="H5">
+        <v>71300</v>
+      </c>
+      <c r="I5">
+        <v>13884</v>
+      </c>
+      <c r="J5">
+        <v>44181</v>
+      </c>
+      <c r="K5">
+        <v>42895</v>
+      </c>
       <c r="L5">
         <v>50763</v>
       </c>
@@ -438,6 +516,24 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
+      </c>
+      <c r="F6">
+        <v>6836.2</v>
+      </c>
+      <c r="G6">
+        <v>46016</v>
+      </c>
+      <c r="H6">
+        <v>71300</v>
+      </c>
+      <c r="I6">
+        <v>13884</v>
+      </c>
+      <c r="J6">
+        <v>48881</v>
+      </c>
+      <c r="K6">
+        <v>49547</v>
       </c>
       <c r="L6">
         <v>50370</v>

--- a/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
+++ b/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\School\_University of Akron\12th Semester - Spring 2025 (PC)\SDP\Vehicle-Dynamics\MATLAB\nonlinear_double_track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA440DA-EAB5-4246-9256-3EDA9CA65FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED736C61-3514-4D51-B972-C2C114E546BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="8700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6285" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +395,12 @@
       <c r="A2">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>25320</v>
+      </c>
+      <c r="C2">
+        <v>11396</v>
+      </c>
       <c r="D2">
         <v>8344.4</v>
       </c>
@@ -430,6 +436,18 @@
       <c r="A3">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>25320</v>
+      </c>
+      <c r="C3">
+        <v>11396</v>
+      </c>
+      <c r="D3">
+        <v>8300</v>
+      </c>
+      <c r="E3">
+        <v>12000</v>
+      </c>
       <c r="F3">
         <v>2483.6999999999998</v>
       </c>
@@ -459,6 +477,18 @@
       <c r="A4">
         <v>40</v>
       </c>
+      <c r="B4">
+        <v>25320</v>
+      </c>
+      <c r="C4">
+        <v>11396</v>
+      </c>
+      <c r="D4">
+        <v>8300</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
       <c r="F4">
         <v>2483.6999999999998</v>
       </c>
@@ -488,6 +518,18 @@
       <c r="A5">
         <v>60</v>
       </c>
+      <c r="B5">
+        <v>25320</v>
+      </c>
+      <c r="C5">
+        <v>11396</v>
+      </c>
+      <c r="D5">
+        <v>8300</v>
+      </c>
+      <c r="E5">
+        <v>12000</v>
+      </c>
       <c r="F5">
         <v>6836.2</v>
       </c>
@@ -516,6 +558,18 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
+      </c>
+      <c r="B6">
+        <v>25320</v>
+      </c>
+      <c r="C6">
+        <v>11396</v>
+      </c>
+      <c r="D6">
+        <v>8300</v>
+      </c>
+      <c r="E6">
+        <v>12000</v>
       </c>
       <c r="F6">
         <v>6836.2</v>

--- a/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
+++ b/MATLAB/nonlinear_double_track/pi_controller_gains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\School\_University of Akron\12th Semester - Spring 2025 (PC)\SDP\Vehicle-Dynamics\MATLAB\nonlinear_double_track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_University of Akron\12th Semester - Spring 2025\SDP\ZRE\Vehicle-Dynamics\MATLAB\nonlinear_double_track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED736C61-3514-4D51-B972-C2C114E546BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4592BF-1B6E-49F9-9F1B-1CEC736B53F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6285" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,13 +359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>2</v>
       </c>
@@ -391,7 +391,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -432,7 +432,7 @@
         <v>66594</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -473,7 +473,7 @@
         <v>70850</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -514,7 +514,7 @@
         <v>83942</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -555,7 +555,7 @@
         <v>93304</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>90</v>
       </c>
@@ -596,13 +596,13 @@
         <v>101260</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
